--- a/data-raw/gods.xlsx
+++ b/data-raw/gods.xlsx
@@ -106,7 +106,7 @@
     <t xml:space="preserve">tezcatlipoca</t>
   </si>
   <si>
-    <t xml:space="preserve">chantio</t>
+    <t xml:space="preserve">chantico</t>
   </si>
   <si>
     <t xml:space="preserve">tlaloc</t>
@@ -775,6 +775,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -858,8 +859,8 @@
   </sheetPr>
   <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A213" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A241" activeCellId="0" sqref="A241"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
